--- a/biology/Microbiologie/Nanoarchaeota/Nanoarchaeota.xlsx
+++ b/biology/Microbiologie/Nanoarchaeota/Nanoarchaeota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nanoarchaeota, ou nanoarchées sont un embranchement d'archées. La première espèce étudiée Nanoarchaeum equitans avec un diamètre de l'ordre de 400 nm compte parmi les plus petites formes de vie connues.
-Son statut de membre unique d'un embranchement à part entière est cependant débattu, car il pourrait en fait s'agir d'une espèce très spécialisée issue de l'ordre des Thermococcales, au sein de l'embranchement des Euryarchaeota[2],[3],[4]
+Son statut de membre unique d'un embranchement à part entière est cependant débattu, car il pourrait en fait s'agir d'une espèce très spécialisée issue de l'ordre des Thermococcales, au sein de l'embranchement des Euryarchaeota
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 juillet 2019)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 juillet 2019) :
 Nanoarchaeales
 famille Nanoarchaeaceae Huber &amp; al. 2011
 Nanoarchaeum
